--- a/source/downloads/ncts5-trader-test-pack/NCTS5_Trader_Test_Data_Spreadsheet_v3.xlsx
+++ b/source/downloads/ncts5-trader-test-pack/NCTS5_Trader_Test_Data_Spreadsheet_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fmcgrath/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BEDE72E3-11FA-8A40-99AA-BD1D6829F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1B16215-1162-B749-AC70-7857DA0FBC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28960" yWindow="-27540" windowWidth="44660" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18600" yWindow="-26160" windowWidth="44660" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GB-XI" sheetId="1" r:id="rId1"/>
@@ -2519,12 +2519,15 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2543,37 +2546,34 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2915,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="188"/>
+      <c r="A1" s="190"/>
       <c r="B1" s="187" t="s">
         <v>0</v>
       </c>
@@ -2925,10 +2925,10 @@
       <c r="F1" s="187"/>
       <c r="G1" s="187"/>
       <c r="H1" s="187"/>
-      <c r="I1" s="188"/>
+      <c r="I1" s="190"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="188"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="38"/>
       <c r="C2" s="98" t="s">
         <v>1</v>
@@ -2948,19 +2948,19 @@
       <c r="H2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="188"/>
+      <c r="I2" s="190"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="188"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="38"/>
       <c r="F3" s="9"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="188"/>
+      <c r="I3" s="190"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="188"/>
-      <c r="B4" s="189" t="s">
+      <c r="A4" s="190"/>
+      <c r="B4" s="188" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="85" t="s">
@@ -2981,19 +2981,19 @@
       <c r="H4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="188"/>
+      <c r="I4" s="190"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="188"/>
-      <c r="B5" s="189"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="188"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="188"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="189"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -3012,19 +3012,19 @@
       <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="188"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="188"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="188"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="94" t="s">
         <v>17</v>
       </c>
@@ -3043,16 +3043,16 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="188"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="I9" s="188"/>
+      <c r="A9" s="190"/>
+      <c r="B9" s="188"/>
+      <c r="I9" s="190"/>
     </row>
     <row r="10" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="188"/>
       <c r="C10" s="94" t="s">
         <v>20</v>
       </c>
@@ -3071,11 +3071,11 @@
       <c r="H10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="188"/>
+      <c r="I10" s="190"/>
     </row>
     <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="188"/>
-      <c r="B11" s="189"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="188"/>
       <c r="D11" s="12"/>
       <c r="E11" s="15">
         <v>2</v>
@@ -3087,11 +3087,11 @@
         <v>24</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="188"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="188"/>
-      <c r="B12" s="189"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="188"/>
       <c r="D12" s="12"/>
       <c r="E12" s="15">
         <v>3</v>
@@ -3103,21 +3103,21 @@
       <c r="H12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="188"/>
+      <c r="I12" s="190"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="188"/>
-      <c r="B13" s="189"/>
+      <c r="A13" s="190"/>
+      <c r="B13" s="188"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="188"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="188"/>
-      <c r="B14" s="189"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="188"/>
       <c r="C14" s="94" t="s">
         <v>27</v>
       </c>
@@ -3136,11 +3136,11 @@
       <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="188"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="188"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="188"/>
       <c r="D15" s="12"/>
       <c r="E15" s="15">
         <v>2</v>
@@ -3154,21 +3154,21 @@
       <c r="H15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="188"/>
+      <c r="I15" s="190"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="188"/>
-      <c r="B16" s="189"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="188"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="188"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="188"/>
-      <c r="B17" s="189"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="188"/>
       <c r="C17" s="94" t="s">
         <v>31</v>
       </c>
@@ -3187,11 +3187,11 @@
       <c r="H17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="188"/>
+      <c r="I17" s="190"/>
     </row>
     <row r="18" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="188"/>
-      <c r="B18" s="189"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="188"/>
       <c r="E18" s="21">
         <v>2</v>
       </c>
@@ -3202,19 +3202,19 @@
       <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="188"/>
+      <c r="I18" s="190"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="188"/>
-      <c r="B19" s="189"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="188"/>
       <c r="F19" s="9"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="188"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="188"/>
-      <c r="B20" s="189"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="188"/>
       <c r="C20" s="94" t="s">
         <v>35</v>
       </c>
@@ -3233,11 +3233,11 @@
       <c r="H20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="188"/>
+      <c r="I20" s="190"/>
     </row>
     <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="188"/>
-      <c r="B21" s="189"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="188"/>
       <c r="E21" s="4">
         <v>2</v>
       </c>
@@ -3248,21 +3248,21 @@
       <c r="H21" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="188"/>
+      <c r="I21" s="190"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
-      <c r="B22" s="189"/>
+      <c r="A22" s="190"/>
+      <c r="B22" s="188"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="188"/>
+      <c r="I22" s="190"/>
     </row>
     <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="188"/>
-      <c r="B23" s="189"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="128" t="s">
         <v>40</v>
       </c>
@@ -3281,11 +3281,11 @@
       <c r="H23" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="188"/>
+      <c r="I23" s="190"/>
     </row>
     <row r="24" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="77"/>
       <c r="D24" s="152"/>
       <c r="E24" s="88">
@@ -3298,21 +3298,21 @@
       <c r="H24" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="188"/>
+      <c r="I24" s="190"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="188"/>
-      <c r="B25" s="189"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="188"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="188"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="188"/>
-      <c r="B26" s="189"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="188"/>
       <c r="C26" s="94" t="s">
         <v>44</v>
       </c>
@@ -3331,21 +3331,21 @@
       <c r="H26" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="188"/>
+      <c r="I26" s="190"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="189"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="188"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="188"/>
+      <c r="I27" s="190"/>
     </row>
     <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
-      <c r="B28" s="189"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="129" t="s">
         <v>48</v>
       </c>
@@ -3364,11 +3364,11 @@
       <c r="H28" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="188"/>
+      <c r="I28" s="190"/>
     </row>
     <row r="29" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="188"/>
-      <c r="B29" s="189"/>
+      <c r="A29" s="190"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="156"/>
       <c r="D29" s="157"/>
       <c r="E29" s="130">
@@ -3383,10 +3383,10 @@
       <c r="H29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="188"/>
+      <c r="I29" s="190"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="188"/>
+      <c r="A30" s="190"/>
       <c r="B30" s="39"/>
       <c r="C30" s="40"/>
       <c r="D30" s="38"/>
@@ -3394,10 +3394,10 @@
       <c r="F30" s="41"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="188"/>
+      <c r="I30" s="190"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="188"/>
+      <c r="A31" s="190"/>
       <c r="B31" s="145"/>
       <c r="C31" s="40"/>
       <c r="D31" s="67"/>
@@ -3405,11 +3405,11 @@
       <c r="F31" s="67"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="188"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="188"/>
-      <c r="B32" s="189" t="s">
+      <c r="A32" s="190"/>
+      <c r="B32" s="188" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="94" t="s">
@@ -3430,11 +3430,11 @@
       <c r="H32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="188"/>
+      <c r="I32" s="190"/>
     </row>
     <row r="33" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="188"/>
-      <c r="B33" s="189"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="188"/>
       <c r="E33" s="10">
         <v>2</v>
       </c>
@@ -3445,21 +3445,21 @@
       <c r="H33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="188"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="188"/>
-      <c r="B34" s="189"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="188"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
       <c r="F34" s="12"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="188"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="188"/>
-      <c r="B35" s="189"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="188"/>
       <c r="C35" s="94" t="s">
         <v>62</v>
       </c>
@@ -3478,11 +3478,11 @@
       <c r="H35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="188"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="188"/>
-      <c r="B36" s="189"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="188"/>
       <c r="E36" s="4">
         <v>2</v>
       </c>
@@ -3493,21 +3493,21 @@
       <c r="H36" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="188"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
-      <c r="B37" s="189"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="188"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="G37"/>
       <c r="H37"/>
-      <c r="I37" s="188"/>
+      <c r="I37" s="190"/>
     </row>
     <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="188"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="94" t="s">
         <v>65</v>
       </c>
@@ -3526,11 +3526,11 @@
       <c r="H38" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="188"/>
+      <c r="I38" s="190"/>
     </row>
     <row r="39" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="188"/>
-      <c r="B39" s="189"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="188"/>
       <c r="E39" s="4">
         <v>2</v>
       </c>
@@ -3541,21 +3541,21 @@
       <c r="H39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="188"/>
+      <c r="I39" s="190"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="188"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="188"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40" s="188"/>
+      <c r="I40" s="190"/>
     </row>
     <row r="41" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="188"/>
-      <c r="B41" s="189"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="188"/>
       <c r="C41" s="94" t="s">
         <v>68</v>
       </c>
@@ -3574,11 +3574,11 @@
       <c r="H41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I41" s="188"/>
+      <c r="I41" s="190"/>
     </row>
     <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="188"/>
-      <c r="B42" s="189"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="188"/>
       <c r="D42" s="12"/>
       <c r="E42" s="15">
         <v>2</v>
@@ -3590,11 +3590,11 @@
       <c r="H42" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="188"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="188"/>
-      <c r="B43" s="189"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="188"/>
       <c r="D43" s="12"/>
       <c r="E43" s="15">
         <v>3</v>
@@ -3606,11 +3606,11 @@
         <v>29</v>
       </c>
       <c r="H43" s="20"/>
-      <c r="I43" s="188"/>
+      <c r="I43" s="190"/>
     </row>
     <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="188"/>
-      <c r="B44" s="189"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="188"/>
       <c r="D44" s="12"/>
       <c r="E44" s="15">
         <v>4</v>
@@ -3622,21 +3622,21 @@
       <c r="H44" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="188"/>
+      <c r="I44" s="190"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
-      <c r="B45" s="189"/>
+      <c r="A45" s="190"/>
+      <c r="B45" s="188"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45" s="188"/>
+      <c r="I45" s="190"/>
     </row>
     <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="188"/>
-      <c r="B46" s="189"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="188"/>
       <c r="C46" s="94" t="s">
         <v>71</v>
       </c>
@@ -3655,11 +3655,11 @@
       <c r="H46" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I46" s="188"/>
+      <c r="I46" s="190"/>
     </row>
     <row r="47" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="188"/>
-      <c r="B47" s="189"/>
+      <c r="A47" s="190"/>
+      <c r="B47" s="188"/>
       <c r="D47" s="12"/>
       <c r="E47" s="21">
         <v>2</v>
@@ -3671,11 +3671,11 @@
       <c r="H47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I47" s="188"/>
+      <c r="I47" s="190"/>
     </row>
     <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="188"/>
-      <c r="B48" s="189"/>
+      <c r="A48" s="190"/>
+      <c r="B48" s="188"/>
       <c r="E48" s="4">
         <v>3</v>
       </c>
@@ -3688,19 +3688,19 @@
       <c r="H48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="188"/>
+      <c r="I48" s="190"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="188"/>
-      <c r="B49" s="189"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="188"/>
       <c r="F49" s="9"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="188"/>
+      <c r="I49" s="190"/>
     </row>
     <row r="50" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="188"/>
-      <c r="B50" s="189"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="188"/>
       <c r="C50" s="94" t="s">
         <v>72</v>
       </c>
@@ -3719,11 +3719,11 @@
       <c r="H50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="188"/>
+      <c r="I50" s="190"/>
     </row>
     <row r="51" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="188"/>
-      <c r="B51" s="189"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="188"/>
       <c r="E51" s="4">
         <v>2</v>
       </c>
@@ -3734,17 +3734,17 @@
       <c r="H51" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="188"/>
+      <c r="I51" s="190"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="188"/>
-      <c r="B52" s="189"/>
+      <c r="A52" s="190"/>
+      <c r="B52" s="188"/>
       <c r="F52" s="14"/>
-      <c r="I52" s="188"/>
+      <c r="I52" s="190"/>
     </row>
     <row r="53" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="188"/>
-      <c r="B53" s="189"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="188"/>
       <c r="C53" s="94" t="s">
         <v>75</v>
       </c>
@@ -3763,11 +3763,11 @@
       <c r="H53" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="I53" s="188"/>
+      <c r="I53" s="190"/>
     </row>
     <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="188"/>
-      <c r="B54" s="189"/>
+      <c r="A54" s="190"/>
+      <c r="B54" s="188"/>
       <c r="E54" s="141">
         <v>2</v>
       </c>
@@ -3778,18 +3778,18 @@
       <c r="H54" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="I54" s="188"/>
+      <c r="I54" s="190"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="188"/>
-      <c r="B55" s="189"/>
+      <c r="A55" s="190"/>
+      <c r="B55" s="188"/>
       <c r="G55" s="135"/>
       <c r="H55" s="136"/>
-      <c r="I55" s="188"/>
+      <c r="I55" s="190"/>
     </row>
     <row r="56" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="188"/>
-      <c r="B56" s="189"/>
+      <c r="A56" s="190"/>
+      <c r="B56" s="188"/>
       <c r="C56" s="129" t="s">
         <v>78</v>
       </c>
@@ -3808,11 +3808,11 @@
       <c r="H56" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="188"/>
+      <c r="I56" s="190"/>
     </row>
     <row r="57" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="188"/>
-      <c r="B57" s="189"/>
+      <c r="A57" s="190"/>
+      <c r="B57" s="188"/>
       <c r="C57" s="77"/>
       <c r="D57" s="132"/>
       <c r="E57" s="88">
@@ -3825,21 +3825,21 @@
       <c r="H57" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="I57" s="188"/>
+      <c r="I57" s="190"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="188"/>
-      <c r="B58" s="189"/>
+      <c r="A58" s="190"/>
+      <c r="B58" s="188"/>
       <c r="D58" s="12"/>
       <c r="E58" s="13"/>
       <c r="F58" s="12"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="188"/>
+      <c r="I58" s="190"/>
     </row>
     <row r="59" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="188"/>
-      <c r="B59" s="189"/>
+      <c r="A59" s="190"/>
+      <c r="B59" s="188"/>
       <c r="C59" s="129" t="s">
         <v>81</v>
       </c>
@@ -3858,11 +3858,11 @@
       <c r="H59" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I59" s="188"/>
+      <c r="I59" s="190"/>
     </row>
     <row r="60" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="188"/>
-      <c r="B60" s="189"/>
+      <c r="A60" s="190"/>
+      <c r="B60" s="188"/>
       <c r="C60" s="77"/>
       <c r="D60" s="132"/>
       <c r="E60" s="130">
@@ -3875,21 +3875,21 @@
       <c r="H60" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="I60" s="188"/>
+      <c r="I60" s="190"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="188"/>
-      <c r="B61" s="189"/>
+      <c r="A61" s="190"/>
+      <c r="B61" s="188"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13"/>
       <c r="F61" s="12"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="188"/>
+      <c r="I61" s="190"/>
     </row>
     <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="188"/>
-      <c r="B62" s="189"/>
+      <c r="A62" s="190"/>
+      <c r="B62" s="188"/>
       <c r="C62" s="129" t="s">
         <v>84</v>
       </c>
@@ -3908,11 +3908,11 @@
       <c r="H62" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I62" s="188"/>
+      <c r="I62" s="190"/>
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="188"/>
-      <c r="B63" s="189"/>
+      <c r="A63" s="190"/>
+      <c r="B63" s="188"/>
       <c r="D63" s="12"/>
       <c r="E63" s="130">
         <v>2</v>
@@ -3924,11 +3924,11 @@
       <c r="H63" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I63" s="188"/>
+      <c r="I63" s="190"/>
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="188"/>
-      <c r="B64" s="189"/>
+      <c r="A64" s="190"/>
+      <c r="B64" s="188"/>
       <c r="D64" s="12"/>
       <c r="E64" s="130">
         <v>3</v>
@@ -3942,11 +3942,11 @@
       <c r="H64" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="188"/>
+      <c r="I64" s="190"/>
     </row>
     <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="188"/>
-      <c r="B65" s="189"/>
+      <c r="A65" s="190"/>
+      <c r="B65" s="188"/>
       <c r="C65" s="158"/>
       <c r="D65" s="159"/>
       <c r="E65" s="130">
@@ -3959,10 +3959,10 @@
       <c r="H65" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="188"/>
+      <c r="I65" s="190"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="188"/>
+      <c r="A66" s="190"/>
       <c r="B66" s="39"/>
       <c r="C66" s="40"/>
       <c r="D66" s="38"/>
@@ -3970,10 +3970,10 @@
       <c r="F66" s="39"/>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
-      <c r="I66" s="188"/>
+      <c r="I66" s="190"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="188"/>
+      <c r="A67" s="190"/>
       <c r="B67" s="127"/>
       <c r="C67" s="127"/>
       <c r="D67" s="127"/>
@@ -3981,7 +3981,7 @@
       <c r="F67" s="127"/>
       <c r="G67" s="127"/>
       <c r="H67" s="127"/>
-      <c r="I67" s="188"/>
+      <c r="I67" s="190"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="39"/>
@@ -3995,7 +3995,7 @@
       <c r="I68" s="39"/>
     </row>
     <row r="71" spans="1:9" ht="37" x14ac:dyDescent="0.2">
-      <c r="A71" s="188"/>
+      <c r="A71" s="190"/>
       <c r="B71" s="187" t="s">
         <v>93</v>
       </c>
@@ -4005,10 +4005,10 @@
       <c r="F71" s="187"/>
       <c r="G71" s="187"/>
       <c r="H71" s="187"/>
-      <c r="I71" s="188"/>
+      <c r="I71" s="190"/>
     </row>
     <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="188"/>
+      <c r="A72" s="190"/>
       <c r="B72" s="38"/>
       <c r="C72" s="98" t="s">
         <v>1</v>
@@ -4028,11 +4028,11 @@
       <c r="H72" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="I72" s="188"/>
+      <c r="I72" s="190"/>
     </row>
     <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="188"/>
-      <c r="B73" s="190" t="s">
+      <c r="A73" s="190"/>
+      <c r="B73" s="191" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="85" t="s">
@@ -4053,11 +4053,11 @@
       <c r="H73" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I73" s="188"/>
+      <c r="I73" s="190"/>
     </row>
     <row r="74" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="188"/>
-      <c r="B74" s="191"/>
+      <c r="A74" s="190"/>
+      <c r="B74" s="192"/>
       <c r="E74" s="87">
         <v>2</v>
       </c>
@@ -4070,19 +4070,19 @@
       <c r="H74" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="I74" s="188"/>
+      <c r="I74" s="190"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="188"/>
-      <c r="B75" s="191"/>
+      <c r="A75" s="190"/>
+      <c r="B75" s="192"/>
       <c r="F75" s="9"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="188"/>
+      <c r="I75" s="190"/>
     </row>
     <row r="76" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="188"/>
-      <c r="B76" s="191"/>
+      <c r="A76" s="190"/>
+      <c r="B76" s="192"/>
       <c r="C76" s="85" t="s">
         <v>100</v>
       </c>
@@ -4101,11 +4101,11 @@
       <c r="H76" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="I76" s="188"/>
+      <c r="I76" s="190"/>
     </row>
     <row r="77" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A77" s="188"/>
-      <c r="B77" s="191"/>
+      <c r="A77" s="190"/>
+      <c r="B77" s="192"/>
       <c r="E77" s="15">
         <v>2</v>
       </c>
@@ -4118,19 +4118,19 @@
       <c r="H77" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="I77" s="188"/>
+      <c r="I77" s="190"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="188"/>
-      <c r="B78" s="191"/>
+      <c r="A78" s="190"/>
+      <c r="B78" s="192"/>
       <c r="F78" s="9"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="188"/>
+      <c r="I78" s="190"/>
     </row>
     <row r="79" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="188"/>
-      <c r="B79" s="191"/>
+      <c r="A79" s="190"/>
+      <c r="B79" s="192"/>
       <c r="C79" s="85" t="s">
         <v>105</v>
       </c>
@@ -4149,11 +4149,11 @@
       <c r="H79" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I79" s="188"/>
+      <c r="I79" s="190"/>
     </row>
     <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="188"/>
-      <c r="B80" s="191"/>
+      <c r="A80" s="190"/>
+      <c r="B80" s="192"/>
       <c r="D80" s="12"/>
       <c r="E80" s="15">
         <v>2</v>
@@ -4167,11 +4167,11 @@
       <c r="H80" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I80" s="188"/>
+      <c r="I80" s="190"/>
     </row>
     <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A81" s="188"/>
-      <c r="B81" s="191"/>
+      <c r="A81" s="190"/>
+      <c r="B81" s="192"/>
       <c r="D81" s="12"/>
       <c r="E81" s="15">
         <v>3</v>
@@ -4185,21 +4185,21 @@
       <c r="H81" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="I81" s="188"/>
+      <c r="I81" s="190"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="188"/>
-      <c r="B82" s="191"/>
+      <c r="A82" s="190"/>
+      <c r="B82" s="192"/>
       <c r="D82" s="12"/>
       <c r="E82" s="13"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="188"/>
+      <c r="I82" s="190"/>
     </row>
     <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="188"/>
-      <c r="B83" s="191"/>
+      <c r="A83" s="190"/>
+      <c r="B83" s="192"/>
       <c r="C83" s="85" t="s">
         <v>109</v>
       </c>
@@ -4218,11 +4218,11 @@
       <c r="H83" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I83" s="188"/>
+      <c r="I83" s="190"/>
     </row>
     <row r="84" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="188"/>
-      <c r="B84" s="192"/>
+      <c r="A84" s="190"/>
+      <c r="B84" s="193"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15">
         <v>2</v>
@@ -4236,10 +4236,10 @@
       <c r="H84" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I84" s="188"/>
+      <c r="I84" s="190"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="188"/>
+      <c r="A85" s="190"/>
       <c r="B85" s="39"/>
       <c r="C85" s="40"/>
       <c r="D85" s="38"/>
@@ -4247,10 +4247,10 @@
       <c r="F85" s="41"/>
       <c r="G85" s="42"/>
       <c r="H85" s="42"/>
-      <c r="I85" s="188"/>
+      <c r="I85" s="190"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="188"/>
+      <c r="A86" s="190"/>
       <c r="B86" s="145"/>
       <c r="C86" s="40"/>
       <c r="D86" s="67"/>
@@ -4258,11 +4258,11 @@
       <c r="F86" s="67"/>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
-      <c r="I86" s="188"/>
+      <c r="I86" s="190"/>
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="188"/>
-      <c r="B87" s="193" t="s">
+      <c r="A87" s="190"/>
+      <c r="B87" s="194" t="s">
         <v>55</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -4283,11 +4283,11 @@
       <c r="H87" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I87" s="188"/>
+      <c r="I87" s="190"/>
     </row>
     <row r="88" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="188"/>
-      <c r="B88" s="194"/>
+      <c r="A88" s="190"/>
+      <c r="B88" s="195"/>
       <c r="E88" s="88">
         <v>2</v>
       </c>
@@ -4300,11 +4300,11 @@
       <c r="H88" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="I88" s="188"/>
+      <c r="I88" s="190"/>
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="188"/>
-      <c r="B89" s="194"/>
+      <c r="A89" s="190"/>
+      <c r="B89" s="195"/>
       <c r="D89" s="12"/>
       <c r="E89" s="88">
         <v>3</v>
@@ -4316,21 +4316,21 @@
       <c r="H89" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="I89" s="188"/>
+      <c r="I89" s="190"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="188"/>
-      <c r="B90" s="194"/>
+      <c r="A90" s="190"/>
+      <c r="B90" s="195"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="G90"/>
       <c r="H90"/>
-      <c r="I90" s="188"/>
+      <c r="I90" s="190"/>
     </row>
     <row r="91" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="188"/>
-      <c r="B91" s="194"/>
+      <c r="A91" s="190"/>
+      <c r="B91" s="195"/>
       <c r="C91" s="4" t="s">
         <v>118</v>
       </c>
@@ -4349,11 +4349,11 @@
       <c r="H91" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="I91" s="188"/>
+      <c r="I91" s="190"/>
     </row>
     <row r="92" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A92" s="188"/>
-      <c r="B92" s="194"/>
+      <c r="A92" s="190"/>
+      <c r="B92" s="195"/>
       <c r="E92" s="4">
         <v>2</v>
       </c>
@@ -4366,21 +4366,21 @@
       <c r="H92" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="I92" s="188"/>
+      <c r="I92" s="190"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="188"/>
-      <c r="B93" s="194"/>
+      <c r="A93" s="190"/>
+      <c r="B93" s="195"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
       <c r="G93"/>
       <c r="H93"/>
-      <c r="I93" s="188"/>
+      <c r="I93" s="190"/>
     </row>
     <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="188"/>
-      <c r="B94" s="194"/>
+      <c r="A94" s="190"/>
+      <c r="B94" s="195"/>
       <c r="C94" s="4" t="s">
         <v>121</v>
       </c>
@@ -4399,11 +4399,11 @@
       <c r="H94" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="I94" s="188"/>
+      <c r="I94" s="190"/>
     </row>
     <row r="95" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="188"/>
-      <c r="B95" s="194"/>
+      <c r="A95" s="190"/>
+      <c r="B95" s="195"/>
       <c r="D95" s="12"/>
       <c r="E95" s="88">
         <v>2</v>
@@ -4417,11 +4417,11 @@
       <c r="H95" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="I95" s="188"/>
+      <c r="I95" s="190"/>
     </row>
     <row r="96" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A96" s="188"/>
-      <c r="B96" s="194"/>
+      <c r="A96" s="190"/>
+      <c r="B96" s="195"/>
       <c r="D96" s="12"/>
       <c r="E96" s="88">
         <v>3</v>
@@ -4435,11 +4435,11 @@
       <c r="H96" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="I96" s="188"/>
+      <c r="I96" s="190"/>
     </row>
     <row r="97" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="188"/>
-      <c r="B97" s="194"/>
+      <c r="A97" s="190"/>
+      <c r="B97" s="195"/>
       <c r="D97" s="12"/>
       <c r="E97" s="88">
         <v>4</v>
@@ -4451,21 +4451,21 @@
       <c r="H97" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="I97" s="188"/>
+      <c r="I97" s="190"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="188"/>
-      <c r="B98" s="194"/>
+      <c r="A98" s="190"/>
+      <c r="B98" s="195"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98" s="188"/>
+      <c r="I98" s="190"/>
     </row>
     <row r="99" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="188"/>
-      <c r="B99" s="194"/>
+      <c r="A99" s="190"/>
+      <c r="B99" s="195"/>
       <c r="C99" s="4" t="s">
         <v>125</v>
       </c>
@@ -4484,11 +4484,11 @@
       <c r="H99" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I99" s="188"/>
+      <c r="I99" s="190"/>
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="188"/>
-      <c r="B100" s="195"/>
+      <c r="A100" s="190"/>
+      <c r="B100" s="196"/>
       <c r="D100" s="12"/>
       <c r="E100" s="15">
         <v>2</v>
@@ -4502,10 +4502,10 @@
       <c r="H100" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I100" s="188"/>
+      <c r="I100" s="190"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="188"/>
+      <c r="A101" s="190"/>
       <c r="B101" s="39"/>
       <c r="C101" s="40"/>
       <c r="D101" s="38"/>
@@ -4513,10 +4513,10 @@
       <c r="F101" s="39"/>
       <c r="G101" s="42"/>
       <c r="H101" s="42"/>
-      <c r="I101" s="188"/>
+      <c r="I101" s="190"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="188"/>
+      <c r="A102" s="190"/>
       <c r="B102" s="127"/>
       <c r="C102" s="127"/>
       <c r="D102" s="127"/>
@@ -4524,7 +4524,7 @@
       <c r="F102" s="127"/>
       <c r="G102" s="127"/>
       <c r="H102" s="127"/>
-      <c r="I102" s="188"/>
+      <c r="I102" s="190"/>
     </row>
     <row r="105" spans="1:9" ht="37" x14ac:dyDescent="0.2">
       <c r="A105" s="39"/>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="108" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="39"/>
-      <c r="B108" s="189" t="s">
+      <c r="B108" s="188" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="129" t="s">
@@ -4597,7 +4597,7 @@
     </row>
     <row r="109" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="39"/>
-      <c r="B109" s="189"/>
+      <c r="B109" s="188"/>
       <c r="D109" s="12"/>
       <c r="E109" s="130">
         <v>2</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="39"/>
-      <c r="B110" s="189"/>
+      <c r="B110" s="188"/>
       <c r="D110" s="12"/>
       <c r="E110" s="129">
         <v>3</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="111" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="39"/>
-      <c r="B111" s="189"/>
+      <c r="B111" s="188"/>
       <c r="D111" s="12"/>
       <c r="E111" s="130">
         <v>4</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="39"/>
-      <c r="B112" s="189"/>
+      <c r="B112" s="188"/>
       <c r="D112" s="12"/>
       <c r="E112" s="13"/>
       <c r="F112" s="22"/>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="113" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="39"/>
-      <c r="B113" s="189"/>
+      <c r="B113" s="188"/>
       <c r="C113" s="129" t="s">
         <v>137</v>
       </c>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="114" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="39"/>
-      <c r="B114" s="189"/>
+      <c r="B114" s="188"/>
       <c r="D114" s="12"/>
       <c r="E114" s="130">
         <v>2</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="115" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="39"/>
-      <c r="B115" s="189"/>
+      <c r="B115" s="188"/>
       <c r="D115" s="12"/>
       <c r="E115" s="129">
         <v>3</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="116" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="39"/>
-      <c r="B116" s="189"/>
+      <c r="B116" s="188"/>
       <c r="E116" s="176">
         <v>4</v>
       </c>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="117" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="39"/>
-      <c r="B117" s="189"/>
+      <c r="B117" s="188"/>
       <c r="D117" s="12"/>
       <c r="E117" s="129"/>
       <c r="F117" s="47"/>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="39"/>
-      <c r="B118" s="189"/>
+      <c r="B118" s="188"/>
       <c r="D118" s="12"/>
       <c r="E118" s="13"/>
       <c r="F118" s="22"/>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="119" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="39"/>
-      <c r="B119" s="189"/>
+      <c r="B119" s="188"/>
       <c r="C119" s="129" t="s">
         <v>141</v>
       </c>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="120" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="39"/>
-      <c r="B120" s="189"/>
+      <c r="B120" s="188"/>
       <c r="C120" s="164"/>
       <c r="D120" s="165"/>
       <c r="E120" s="130">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="39"/>
-      <c r="B121" s="189"/>
+      <c r="B121" s="188"/>
       <c r="E121" s="130">
         <v>3</v>
       </c>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="122" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A122" s="39"/>
-      <c r="B122" s="189"/>
+      <c r="B122" s="188"/>
       <c r="E122" s="130">
         <v>4</v>
       </c>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="39"/>
-      <c r="B123" s="189"/>
+      <c r="B123" s="188"/>
       <c r="F123" s="9"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="124" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="39"/>
-      <c r="B124" s="189"/>
+      <c r="B124" s="188"/>
       <c r="C124" s="129" t="s">
         <v>146</v>
       </c>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="125" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="39"/>
-      <c r="B125" s="189"/>
+      <c r="B125" s="188"/>
       <c r="C125" s="164"/>
       <c r="D125" s="165"/>
       <c r="E125" s="130">
@@ -4877,7 +4877,7 @@
     </row>
     <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="39"/>
-      <c r="B126" s="189"/>
+      <c r="B126" s="188"/>
       <c r="E126" s="130">
         <v>3</v>
       </c>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="127" spans="1:9" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39"/>
-      <c r="B127" s="189"/>
+      <c r="B127" s="188"/>
       <c r="E127" s="130">
         <v>4</v>
       </c>
@@ -4929,14 +4929,14 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="39"/>
-      <c r="B130" s="189" t="s">
+      <c r="B130" s="188" t="s">
         <v>55</v>
       </c>
       <c r="I130" s="39"/>
     </row>
     <row r="131" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="39"/>
-      <c r="B131" s="189"/>
+      <c r="B131" s="188"/>
       <c r="C131" s="129" t="s">
         <v>150</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="167" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="G131" s="80" t="s">
         <v>11</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="132" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="39"/>
-      <c r="B132" s="189"/>
+      <c r="B132" s="188"/>
       <c r="D132" s="12"/>
       <c r="E132" s="130">
         <v>2</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="39"/>
-      <c r="B133" s="189"/>
+      <c r="B133" s="188"/>
       <c r="I133" s="39"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5004,7 +5004,7 @@
     </row>
     <row r="136" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="39"/>
-      <c r="B136" s="196" t="s">
+      <c r="B136" s="189" t="s">
         <v>155</v>
       </c>
       <c r="C136" s="128" t="s">
@@ -5029,7 +5029,7 @@
     </row>
     <row r="137" spans="1:9" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39"/>
-      <c r="B137" s="196"/>
+      <c r="B137" s="189"/>
       <c r="C137" s="77"/>
       <c r="D137" s="152"/>
       <c r="E137" s="88">
@@ -5046,7 +5046,7 @@
     </row>
     <row r="138" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="39"/>
-      <c r="B138" s="196"/>
+      <c r="B138" s="189"/>
       <c r="D138" s="12"/>
       <c r="E138" s="130">
         <v>3</v>
@@ -5086,11 +5086,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B105:H105"/>
-    <mergeCell ref="B108:B127"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="B71:H71"/>
     <mergeCell ref="I71:I102"/>
     <mergeCell ref="A71:A102"/>
     <mergeCell ref="B73:B84"/>
@@ -5100,6 +5095,11 @@
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:I67"/>
     <mergeCell ref="B4:B29"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B108:B127"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="B71:H71"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5113,8 +5113,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5131,7 +5131,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37" x14ac:dyDescent="0.2">
-      <c r="A1" s="188"/>
+      <c r="A1" s="190"/>
       <c r="B1" s="187" t="s">
         <v>0</v>
       </c>
@@ -5141,10 +5141,10 @@
       <c r="F1" s="187"/>
       <c r="G1" s="187"/>
       <c r="H1" s="187"/>
-      <c r="I1" s="188"/>
+      <c r="I1" s="190"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="188"/>
+      <c r="A2" s="190"/>
       <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -5164,11 +5164,11 @@
       <c r="H2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="188"/>
+      <c r="I2" s="190"/>
     </row>
     <row r="3" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="188" t="s">
         <v>160</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -5189,16 +5189,16 @@
       <c r="H3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="188"/>
+      <c r="I3" s="190"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="188"/>
-      <c r="B4" s="189"/>
-      <c r="I4" s="188"/>
+      <c r="A4" s="190"/>
+      <c r="B4" s="188"/>
+      <c r="I4" s="190"/>
     </row>
     <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="188"/>
-      <c r="B5" s="189"/>
+      <c r="A5" s="190"/>
+      <c r="B5" s="188"/>
       <c r="C5" s="4" t="s">
         <v>162</v>
       </c>
@@ -5217,19 +5217,19 @@
       <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="188"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="189"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="188"/>
       <c r="F6" s="2"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="188"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="188"/>
-      <c r="B7" s="189"/>
+      <c r="A7" s="190"/>
+      <c r="B7" s="188"/>
       <c r="C7" s="4" t="s">
         <v>164</v>
       </c>
@@ -5248,20 +5248,20 @@
       <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="188"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="I8" s="188"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="188"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="188"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="197" t="s">
+      <c r="A9" s="190"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="199" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="92">
@@ -5276,13 +5276,13 @@
       <c r="H9" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="188"/>
+      <c r="I9" s="190"/>
     </row>
     <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="200"/>
+      <c r="A10" s="190"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="92">
         <v>2</v>
       </c>
@@ -5293,13 +5293,13 @@
         <v>24</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="188"/>
+      <c r="I10" s="190"/>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="188"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="200"/>
+      <c r="A11" s="190"/>
+      <c r="B11" s="188"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="92">
         <v>3</v>
       </c>
@@ -5310,25 +5310,25 @@
       <c r="H11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="188"/>
+      <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="188"/>
-      <c r="B12" s="189"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="188"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="188"/>
+      <c r="I12" s="190"/>
     </row>
     <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="188"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="197" t="s">
+      <c r="A13" s="190"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="200" t="s">
+      <c r="D13" s="199" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="92">
@@ -5343,13 +5343,13 @@
       <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="188"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="188"/>
-      <c r="B14" s="189"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="200"/>
+      <c r="A14" s="190"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="199"/>
       <c r="E14" s="93">
         <v>2</v>
       </c>
@@ -5362,25 +5362,25 @@
       <c r="H14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="188"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="188"/>
-      <c r="B15" s="189"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="188"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="188"/>
+      <c r="I15" s="190"/>
     </row>
     <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="188"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="197" t="s">
+      <c r="A16" s="190"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="199" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="92">
@@ -5395,13 +5395,13 @@
       <c r="H16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="188"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="188"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="200"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="92">
         <v>2</v>
       </c>
@@ -5412,23 +5412,23 @@
       <c r="H17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="188"/>
+      <c r="I17" s="190"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="188"/>
-      <c r="B18" s="189"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="188"/>
       <c r="F18" s="2"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="188"/>
+      <c r="I18" s="190"/>
     </row>
     <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="188"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="197" t="s">
+      <c r="A19" s="190"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="198" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="200" t="s">
+      <c r="D19" s="199" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="94">
@@ -5443,13 +5443,13 @@
       <c r="H19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="188"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20" s="188"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="200"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
       <c r="E20" s="94">
         <v>2</v>
       </c>
@@ -5460,22 +5460,22 @@
       <c r="H20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="188"/>
+      <c r="I20" s="190"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="188"/>
-      <c r="B21" s="189"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="188"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="188"/>
+      <c r="I21" s="190"/>
     </row>
     <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="197" t="s">
+      <c r="A22" s="190"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="198" t="s">
         <v>172</v>
       </c>
       <c r="D22" s="201" t="s">
@@ -5493,12 +5493,12 @@
       <c r="H22" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="188"/>
+      <c r="I22" s="190"/>
     </row>
     <row r="23" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="188"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="197"/>
+      <c r="A23" s="190"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="198"/>
       <c r="D23" s="201"/>
       <c r="E23" s="88">
         <v>2</v>
@@ -5510,21 +5510,21 @@
       <c r="H23" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="188"/>
+      <c r="I23" s="190"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="188"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="188"/>
+      <c r="I24" s="190"/>
     </row>
     <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="188"/>
-      <c r="B25" s="189"/>
+      <c r="A25" s="190"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="4" t="s">
         <v>173</v>
       </c>
@@ -5543,21 +5543,21 @@
       <c r="H25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="188"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="188"/>
-      <c r="B26" s="189"/>
+      <c r="A26" s="190"/>
+      <c r="B26" s="188"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="188"/>
+      <c r="I26" s="190"/>
     </row>
     <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="188"/>
-      <c r="B27" s="189"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="129" t="s">
         <v>174</v>
       </c>
@@ -5576,11 +5576,11 @@
       <c r="H27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="188"/>
+      <c r="I27" s="190"/>
     </row>
     <row r="28" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
-      <c r="B28" s="189"/>
+      <c r="A28" s="190"/>
+      <c r="B28" s="188"/>
       <c r="C28" s="156"/>
       <c r="D28" s="157"/>
       <c r="E28" s="130">
@@ -5595,10 +5595,10 @@
       <c r="H28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="188"/>
+      <c r="I28" s="190"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="188"/>
+      <c r="A29" s="190"/>
       <c r="B29" s="145"/>
       <c r="C29" s="40"/>
       <c r="D29" s="67"/>
@@ -5606,10 +5606,10 @@
       <c r="F29" s="67"/>
       <c r="G29" s="147"/>
       <c r="H29" s="147"/>
-      <c r="I29" s="188"/>
+      <c r="I29" s="190"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="188"/>
+      <c r="A30" s="190"/>
       <c r="B30" s="39"/>
       <c r="C30" s="40"/>
       <c r="D30" s="38"/>
@@ -5617,17 +5617,17 @@
       <c r="F30" s="67"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
-      <c r="I30" s="188"/>
+      <c r="I30" s="190"/>
     </row>
     <row r="31" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="188"/>
-      <c r="B31" s="203" t="s">
+      <c r="A31" s="190"/>
+      <c r="B31" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="197" t="s">
+      <c r="C31" s="198" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="204" t="s">
+      <c r="D31" s="197" t="s">
         <v>57</v>
       </c>
       <c r="E31" s="94">
@@ -5642,13 +5642,13 @@
       <c r="H31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="188"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="188"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="204"/>
+      <c r="A32" s="190"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="197"/>
       <c r="E32" s="94">
         <v>2</v>
       </c>
@@ -5659,25 +5659,25 @@
       <c r="H32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="188"/>
+      <c r="I32" s="190"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="188"/>
-      <c r="B33" s="203"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="200"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="188"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="188"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="197" t="s">
+      <c r="A34" s="190"/>
+      <c r="B34" s="200"/>
+      <c r="C34" s="198" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="200" t="s">
+      <c r="D34" s="199" t="s">
         <v>63</v>
       </c>
       <c r="E34" s="94">
@@ -5692,13 +5692,13 @@
       <c r="H34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="188"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="188"/>
-      <c r="B35" s="203"/>
-      <c r="C35" s="197"/>
-      <c r="D35" s="200"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="199"/>
       <c r="E35" s="94">
         <v>2</v>
       </c>
@@ -5709,21 +5709,21 @@
       <c r="H35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="188"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="188"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="200"/>
       <c r="C36"/>
-      <c r="I36" s="188"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
-      <c r="B37" s="203"/>
-      <c r="C37" s="197" t="s">
+      <c r="A37" s="190"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="198" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="200" t="s">
+      <c r="D37" s="199" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="94">
@@ -5738,13 +5738,13 @@
       <c r="H37" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="188"/>
+      <c r="I37" s="190"/>
     </row>
     <row r="38" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="188"/>
-      <c r="B38" s="203"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="200"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="199"/>
       <c r="E38" s="94">
         <v>2</v>
       </c>
@@ -5755,21 +5755,21 @@
       <c r="H38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="188"/>
+      <c r="I38" s="190"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="188"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="200"/>
       <c r="C39"/>
-      <c r="I39" s="188"/>
+      <c r="I39" s="190"/>
     </row>
     <row r="40" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="188"/>
-      <c r="B40" s="203"/>
-      <c r="C40" s="197" t="s">
+      <c r="A40" s="190"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="198" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="200" t="s">
+      <c r="D40" s="199" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="92">
@@ -5784,13 +5784,13 @@
       <c r="H40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="188"/>
+      <c r="I40" s="190"/>
     </row>
     <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="188"/>
-      <c r="B41" s="203"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="200"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="199"/>
       <c r="E41" s="92">
         <v>2</v>
       </c>
@@ -5801,13 +5801,13 @@
       <c r="H41" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="188"/>
+      <c r="I41" s="190"/>
     </row>
     <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="188"/>
-      <c r="B42" s="203"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="200"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="199"/>
       <c r="E42" s="93">
         <v>3</v>
       </c>
@@ -5818,13 +5818,13 @@
         <v>29</v>
       </c>
       <c r="H42" s="20"/>
-      <c r="I42" s="188"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="188"/>
-      <c r="B43" s="203"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="200"/>
+      <c r="A43" s="190"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="199"/>
       <c r="E43" s="93">
         <v>4</v>
       </c>
@@ -5835,21 +5835,21 @@
       <c r="H43" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="188"/>
+      <c r="I43" s="190"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="188"/>
-      <c r="B44" s="203"/>
+      <c r="A44" s="190"/>
+      <c r="B44" s="200"/>
       <c r="C44"/>
-      <c r="I44" s="188"/>
+      <c r="I44" s="190"/>
     </row>
     <row r="45" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
-      <c r="B45" s="203"/>
-      <c r="C45" s="197" t="s">
+      <c r="A45" s="190"/>
+      <c r="B45" s="200"/>
+      <c r="C45" s="198" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="200" t="s">
+      <c r="D45" s="199" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="92">
@@ -5864,13 +5864,13 @@
       <c r="H45" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="188"/>
+      <c r="I45" s="190"/>
     </row>
     <row r="46" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="188"/>
-      <c r="B46" s="203"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="200"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="199"/>
       <c r="E46" s="92">
         <v>2</v>
       </c>
@@ -5881,13 +5881,13 @@
       <c r="H46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I46" s="188"/>
+      <c r="I46" s="190"/>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="188"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="200"/>
+      <c r="A47" s="190"/>
+      <c r="B47" s="200"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="94">
         <v>3</v>
       </c>
@@ -5900,23 +5900,23 @@
       <c r="H47" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I47" s="188"/>
+      <c r="I47" s="190"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="188"/>
-      <c r="B48" s="203"/>
+      <c r="A48" s="190"/>
+      <c r="B48" s="200"/>
       <c r="F48" s="2"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="188"/>
+      <c r="I48" s="190"/>
     </row>
     <row r="49" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="188"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="197" t="s">
+      <c r="A49" s="190"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="198" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="200" t="s">
+      <c r="D49" s="199" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="94">
@@ -5931,13 +5931,13 @@
       <c r="H49" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="188"/>
+      <c r="I49" s="190"/>
     </row>
     <row r="50" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="188"/>
-      <c r="B50" s="203"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="200"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="199"/>
       <c r="E50" s="94">
         <v>2</v>
       </c>
@@ -5948,20 +5948,20 @@
       <c r="H50" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I50" s="188"/>
+      <c r="I50" s="190"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="188"/>
-      <c r="B51" s="203"/>
-      <c r="I51" s="188"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="200"/>
+      <c r="I51" s="190"/>
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="188"/>
-      <c r="B52" s="203"/>
-      <c r="C52" s="197" t="s">
+      <c r="A52" s="190"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="198" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="200" t="s">
+      <c r="D52" s="199" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="94">
@@ -5976,13 +5976,13 @@
       <c r="H52" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="188"/>
+      <c r="I52" s="190"/>
     </row>
     <row r="53" spans="1:9" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="188"/>
-      <c r="B53" s="203"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="200"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="200"/>
+      <c r="C53" s="198"/>
+      <c r="D53" s="199"/>
       <c r="E53" s="94">
         <v>2</v>
       </c>
@@ -5993,20 +5993,20 @@
       <c r="H53" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I53" s="188"/>
+      <c r="I53" s="190"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="188"/>
-      <c r="B54" s="203"/>
-      <c r="I54" s="188"/>
+      <c r="A54" s="190"/>
+      <c r="B54" s="200"/>
+      <c r="I54" s="190"/>
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="188"/>
-      <c r="B55" s="203"/>
-      <c r="C55" s="197" t="s">
+      <c r="A55" s="190"/>
+      <c r="B55" s="200"/>
+      <c r="C55" s="198" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="200" t="s">
+      <c r="D55" s="199" t="s">
         <v>190</v>
       </c>
       <c r="E55" s="92">
@@ -6021,13 +6021,13 @@
       <c r="H55" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I55" s="188"/>
+      <c r="I55" s="190"/>
     </row>
     <row r="56" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="188"/>
-      <c r="B56" s="203"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="200"/>
+      <c r="A56" s="190"/>
+      <c r="B56" s="200"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="199"/>
       <c r="E56" s="92">
         <v>2</v>
       </c>
@@ -6038,22 +6038,22 @@
       <c r="H56" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I56" s="188"/>
+      <c r="I56" s="190"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="188"/>
-      <c r="B57" s="203"/>
+      <c r="A57" s="190"/>
+      <c r="B57" s="200"/>
       <c r="D57" s="12"/>
       <c r="E57" s="13"/>
       <c r="F57" s="12"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="188"/>
+      <c r="I57" s="190"/>
     </row>
     <row r="58" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="188"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="197" t="s">
+      <c r="A58" s="190"/>
+      <c r="B58" s="200"/>
+      <c r="C58" s="198" t="s">
         <v>192</v>
       </c>
       <c r="D58" s="202" t="s">
@@ -6071,12 +6071,12 @@
       <c r="H58" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="188"/>
+      <c r="I58" s="190"/>
     </row>
     <row r="59" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="188"/>
-      <c r="B59" s="203"/>
-      <c r="C59" s="197"/>
+      <c r="A59" s="190"/>
+      <c r="B59" s="200"/>
+      <c r="C59" s="198"/>
       <c r="D59" s="202"/>
       <c r="E59" s="88">
         <v>2</v>
@@ -6088,25 +6088,25 @@
       <c r="H59" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="I59" s="188"/>
+      <c r="I59" s="190"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="188"/>
-      <c r="B60" s="203"/>
+      <c r="A60" s="190"/>
+      <c r="B60" s="200"/>
       <c r="D60" s="12"/>
       <c r="E60" s="13"/>
       <c r="F60" s="12"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="188"/>
+      <c r="I60" s="190"/>
     </row>
     <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="188"/>
-      <c r="B61" s="203"/>
-      <c r="C61" s="197" t="s">
+      <c r="A61" s="190"/>
+      <c r="B61" s="200"/>
+      <c r="C61" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="198" t="s">
+      <c r="D61" s="203" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="92">
@@ -6121,13 +6121,13 @@
       <c r="H61" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="188"/>
+      <c r="I61" s="190"/>
     </row>
     <row r="62" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="188"/>
-      <c r="B62" s="203"/>
-      <c r="C62" s="197"/>
-      <c r="D62" s="199"/>
+      <c r="A62" s="190"/>
+      <c r="B62" s="200"/>
+      <c r="C62" s="198"/>
+      <c r="D62" s="204"/>
       <c r="E62" s="92">
         <v>2</v>
       </c>
@@ -6138,21 +6138,21 @@
       <c r="H62" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="I62" s="188"/>
+      <c r="I62" s="190"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="188"/>
-      <c r="B63" s="203"/>
+      <c r="A63" s="190"/>
+      <c r="B63" s="200"/>
       <c r="D63" s="12"/>
       <c r="E63" s="13"/>
       <c r="F63" s="12"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="188"/>
+      <c r="I63" s="190"/>
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="188"/>
-      <c r="B64" s="203"/>
+      <c r="A64" s="190"/>
+      <c r="B64" s="200"/>
       <c r="C64" s="129" t="s">
         <v>194</v>
       </c>
@@ -6171,11 +6171,11 @@
       <c r="H64" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I64" s="188"/>
+      <c r="I64" s="190"/>
     </row>
     <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="188"/>
-      <c r="B65" s="203"/>
+      <c r="A65" s="190"/>
+      <c r="B65" s="200"/>
       <c r="D65" s="12"/>
       <c r="E65" s="130">
         <v>2</v>
@@ -6187,11 +6187,11 @@
       <c r="H65" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I65" s="188"/>
+      <c r="I65" s="190"/>
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="188"/>
-      <c r="B66" s="203"/>
+      <c r="A66" s="190"/>
+      <c r="B66" s="200"/>
       <c r="D66" s="12"/>
       <c r="E66" s="130">
         <v>3</v>
@@ -6205,11 +6205,11 @@
       <c r="H66" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I66" s="188"/>
+      <c r="I66" s="190"/>
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="188"/>
-      <c r="B67" s="203"/>
+      <c r="A67" s="190"/>
+      <c r="B67" s="200"/>
       <c r="C67" s="158"/>
       <c r="D67" s="159"/>
       <c r="E67" s="130">
@@ -6222,10 +6222,10 @@
       <c r="H67" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="188"/>
+      <c r="I67" s="190"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="188"/>
+      <c r="A68" s="190"/>
       <c r="B68" s="39"/>
       <c r="C68" s="40"/>
       <c r="D68" s="38"/>
@@ -6233,7 +6233,7 @@
       <c r="F68" s="78"/>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
-      <c r="I68" s="188"/>
+      <c r="I68" s="190"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="39"/>
@@ -6247,7 +6247,7 @@
       <c r="I69" s="39"/>
     </row>
     <row r="72" spans="1:9" ht="37" x14ac:dyDescent="0.2">
-      <c r="A72" s="188"/>
+      <c r="A72" s="190"/>
       <c r="B72" s="187" t="s">
         <v>93</v>
       </c>
@@ -6257,10 +6257,10 @@
       <c r="F72" s="187"/>
       <c r="G72" s="187"/>
       <c r="H72" s="187"/>
-      <c r="I72" s="188"/>
+      <c r="I72" s="190"/>
     </row>
     <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="188"/>
+      <c r="A73" s="190"/>
       <c r="B73" s="38"/>
       <c r="C73" s="98" t="s">
         <v>1</v>
@@ -6280,11 +6280,11 @@
       <c r="H73" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="I73" s="188"/>
+      <c r="I73" s="190"/>
     </row>
     <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="188"/>
-      <c r="B74" s="190" t="s">
+      <c r="A74" s="190"/>
+      <c r="B74" s="191" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="85" t="s">
@@ -6305,11 +6305,11 @@
       <c r="H74" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I74" s="188"/>
+      <c r="I74" s="190"/>
     </row>
     <row r="75" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="188"/>
-      <c r="B75" s="191"/>
+      <c r="A75" s="190"/>
+      <c r="B75" s="192"/>
       <c r="E75" s="87">
         <v>2</v>
       </c>
@@ -6322,19 +6322,19 @@
       <c r="H75" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="I75" s="188"/>
+      <c r="I75" s="190"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="188"/>
-      <c r="B76" s="191"/>
+      <c r="A76" s="190"/>
+      <c r="B76" s="192"/>
       <c r="F76" s="9"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="188"/>
+      <c r="I76" s="190"/>
     </row>
     <row r="77" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="188"/>
-      <c r="B77" s="191"/>
+      <c r="A77" s="190"/>
+      <c r="B77" s="192"/>
       <c r="C77" s="131" t="s">
         <v>199</v>
       </c>
@@ -6353,11 +6353,11 @@
       <c r="H77" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="I77" s="188"/>
+      <c r="I77" s="190"/>
     </row>
     <row r="78" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="188"/>
-      <c r="B78" s="191"/>
+      <c r="A78" s="190"/>
+      <c r="B78" s="192"/>
       <c r="E78" s="15">
         <v>2</v>
       </c>
@@ -6370,19 +6370,19 @@
       <c r="H78" s="186" t="s">
         <v>201</v>
       </c>
-      <c r="I78" s="188"/>
+      <c r="I78" s="190"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="188"/>
-      <c r="B79" s="191"/>
+      <c r="A79" s="190"/>
+      <c r="B79" s="192"/>
       <c r="F79" s="9"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="188"/>
+      <c r="I79" s="190"/>
     </row>
     <row r="80" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="188"/>
-      <c r="B80" s="191"/>
+      <c r="A80" s="190"/>
+      <c r="B80" s="192"/>
       <c r="C80" s="131" t="s">
         <v>202</v>
       </c>
@@ -6401,11 +6401,11 @@
       <c r="H80" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I80" s="188"/>
+      <c r="I80" s="190"/>
     </row>
     <row r="81" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A81" s="188"/>
-      <c r="B81" s="191"/>
+      <c r="A81" s="190"/>
+      <c r="B81" s="192"/>
       <c r="D81" s="12"/>
       <c r="E81" s="15">
         <v>2</v>
@@ -6419,11 +6419,11 @@
       <c r="H81" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I81" s="188"/>
+      <c r="I81" s="190"/>
     </row>
     <row r="82" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A82" s="188"/>
-      <c r="B82" s="191"/>
+      <c r="A82" s="190"/>
+      <c r="B82" s="192"/>
       <c r="D82" s="12"/>
       <c r="E82" s="15">
         <v>3</v>
@@ -6437,21 +6437,21 @@
       <c r="H82" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="I82" s="188"/>
+      <c r="I82" s="190"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="188"/>
-      <c r="B83" s="191"/>
+      <c r="A83" s="190"/>
+      <c r="B83" s="192"/>
       <c r="D83" s="12"/>
       <c r="E83" s="13"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
-      <c r="I83" s="188"/>
+      <c r="I83" s="190"/>
     </row>
     <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="188"/>
-      <c r="B84" s="191"/>
+      <c r="A84" s="190"/>
+      <c r="B84" s="192"/>
       <c r="C84" s="131" t="s">
         <v>204</v>
       </c>
@@ -6470,11 +6470,11 @@
       <c r="H84" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="188"/>
+      <c r="I84" s="190"/>
     </row>
     <row r="85" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="188"/>
-      <c r="B85" s="192"/>
+      <c r="A85" s="190"/>
+      <c r="B85" s="193"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15">
         <v>2</v>
@@ -6488,10 +6488,10 @@
       <c r="H85" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I85" s="188"/>
+      <c r="I85" s="190"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="188"/>
+      <c r="A86" s="190"/>
       <c r="B86" s="39"/>
       <c r="C86" s="40"/>
       <c r="D86" s="38"/>
@@ -6499,10 +6499,10 @@
       <c r="F86" s="41"/>
       <c r="G86" s="42"/>
       <c r="H86" s="42"/>
-      <c r="I86" s="188"/>
+      <c r="I86" s="190"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="188"/>
+      <c r="A87" s="190"/>
       <c r="B87" s="145"/>
       <c r="C87" s="40"/>
       <c r="D87" s="67"/>
@@ -6510,11 +6510,11 @@
       <c r="F87" s="67"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
-      <c r="I87" s="188"/>
+      <c r="I87" s="190"/>
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="188"/>
-      <c r="B88" s="193" t="s">
+      <c r="A88" s="190"/>
+      <c r="B88" s="194" t="s">
         <v>55</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -6535,11 +6535,11 @@
       <c r="H88" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I88" s="188"/>
+      <c r="I88" s="190"/>
     </row>
     <row r="89" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="188"/>
-      <c r="B89" s="194"/>
+      <c r="A89" s="190"/>
+      <c r="B89" s="195"/>
       <c r="E89" s="88">
         <v>2</v>
       </c>
@@ -6552,11 +6552,11 @@
       <c r="H89" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="I89" s="188"/>
+      <c r="I89" s="190"/>
     </row>
     <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="188"/>
-      <c r="B90" s="194"/>
+      <c r="A90" s="190"/>
+      <c r="B90" s="195"/>
       <c r="D90" s="12"/>
       <c r="E90" s="88">
         <v>3</v>
@@ -6568,22 +6568,22 @@
       <c r="H90" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="188"/>
+      <c r="I90" s="190"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="188"/>
-      <c r="B91" s="194"/>
+      <c r="A91" s="190"/>
+      <c r="B91" s="195"/>
       <c r="C91"/>
       <c r="D91" s="9"/>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
-      <c r="I91" s="188"/>
+      <c r="I91" s="190"/>
     </row>
     <row r="92" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" s="188"/>
-      <c r="B92" s="194"/>
+      <c r="A92" s="190"/>
+      <c r="B92" s="195"/>
       <c r="C92" s="4" t="s">
         <v>209</v>
       </c>
@@ -6602,11 +6602,11 @@
       <c r="H92" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="I92" s="188"/>
+      <c r="I92" s="190"/>
     </row>
     <row r="93" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A93" s="188"/>
-      <c r="B93" s="194"/>
+      <c r="A93" s="190"/>
+      <c r="B93" s="195"/>
       <c r="E93" s="4">
         <v>2</v>
       </c>
@@ -6619,22 +6619,22 @@
       <c r="H93" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="I93" s="188"/>
+      <c r="I93" s="190"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="188"/>
-      <c r="B94" s="194"/>
+      <c r="A94" s="190"/>
+      <c r="B94" s="195"/>
       <c r="C94"/>
       <c r="D94" s="9"/>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
-      <c r="I94" s="188"/>
+      <c r="I94" s="190"/>
     </row>
     <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="188"/>
-      <c r="B95" s="194"/>
+      <c r="A95" s="190"/>
+      <c r="B95" s="195"/>
       <c r="C95" s="4" t="s">
         <v>212</v>
       </c>
@@ -6653,11 +6653,11 @@
       <c r="H95" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="I95" s="188"/>
+      <c r="I95" s="190"/>
     </row>
     <row r="96" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A96" s="188"/>
-      <c r="B96" s="194"/>
+      <c r="A96" s="190"/>
+      <c r="B96" s="195"/>
       <c r="D96" s="12"/>
       <c r="E96" s="88">
         <v>2</v>
@@ -6671,11 +6671,11 @@
       <c r="H96" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="I96" s="188"/>
+      <c r="I96" s="190"/>
     </row>
     <row r="97" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="188"/>
-      <c r="B97" s="194"/>
+      <c r="A97" s="190"/>
+      <c r="B97" s="195"/>
       <c r="D97" s="12"/>
       <c r="E97" s="88">
         <v>3</v>
@@ -6689,11 +6689,11 @@
       <c r="H97" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="I97" s="188"/>
+      <c r="I97" s="190"/>
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="188"/>
-      <c r="B98" s="194"/>
+      <c r="A98" s="190"/>
+      <c r="B98" s="195"/>
       <c r="D98" s="12"/>
       <c r="E98" s="88">
         <v>4</v>
@@ -6705,22 +6705,22 @@
       <c r="H98" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="I98" s="188"/>
+      <c r="I98" s="190"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="188"/>
-      <c r="B99" s="194"/>
+      <c r="A99" s="190"/>
+      <c r="B99" s="195"/>
       <c r="C99"/>
       <c r="D99" s="9"/>
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="I99" s="188"/>
+      <c r="I99" s="190"/>
     </row>
     <row r="100" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="188"/>
-      <c r="B100" s="194"/>
+      <c r="A100" s="190"/>
+      <c r="B100" s="195"/>
       <c r="C100" s="4" t="s">
         <v>215</v>
       </c>
@@ -6739,11 +6739,11 @@
       <c r="H100" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I100" s="188"/>
+      <c r="I100" s="190"/>
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="188"/>
-      <c r="B101" s="195"/>
+      <c r="A101" s="190"/>
+      <c r="B101" s="196"/>
       <c r="D101" s="12"/>
       <c r="E101" s="15">
         <v>2</v>
@@ -6757,10 +6757,10 @@
       <c r="H101" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I101" s="188"/>
+      <c r="I101" s="190"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="188"/>
+      <c r="A102" s="190"/>
       <c r="B102" s="39"/>
       <c r="C102" s="40"/>
       <c r="D102" s="38"/>
@@ -6768,10 +6768,10 @@
       <c r="F102" s="39"/>
       <c r="G102" s="42"/>
       <c r="H102" s="42"/>
-      <c r="I102" s="188"/>
+      <c r="I102" s="190"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="188"/>
+      <c r="A103" s="190"/>
       <c r="B103" s="127"/>
       <c r="C103" s="127"/>
       <c r="D103" s="64"/>
@@ -6779,7 +6779,7 @@
       <c r="F103" s="127"/>
       <c r="G103" s="127"/>
       <c r="H103" s="127"/>
-      <c r="I103" s="188"/>
+      <c r="I103" s="190"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F104"/>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="109" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="39"/>
-      <c r="B109" s="189" t="s">
+      <c r="B109" s="188" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="129" t="s">
@@ -6858,7 +6858,7 @@
     </row>
     <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="39"/>
-      <c r="B110" s="189"/>
+      <c r="B110" s="188"/>
       <c r="D110" s="12"/>
       <c r="E110" s="130">
         <v>2</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="111" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="39"/>
-      <c r="B111" s="189"/>
+      <c r="B111" s="188"/>
       <c r="D111" s="12"/>
       <c r="E111" s="129">
         <v>3</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="112" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="39"/>
-      <c r="B112" s="189"/>
+      <c r="B112" s="188"/>
       <c r="D112" s="12"/>
       <c r="E112" s="130">
         <v>4</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="39"/>
-      <c r="B113" s="189"/>
+      <c r="B113" s="188"/>
       <c r="D113" s="12"/>
       <c r="E113" s="13"/>
       <c r="F113" s="22"/>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="114" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="39"/>
-      <c r="B114" s="189"/>
+      <c r="B114" s="188"/>
       <c r="C114" s="129" t="s">
         <v>220</v>
       </c>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="115" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="39"/>
-      <c r="B115" s="189"/>
+      <c r="B115" s="188"/>
       <c r="D115" s="12"/>
       <c r="E115" s="130">
         <v>2</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="116" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="39"/>
-      <c r="B116" s="189"/>
+      <c r="B116" s="188"/>
       <c r="D116" s="12"/>
       <c r="E116" s="129">
         <v>3</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="117" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="39"/>
-      <c r="B117" s="189"/>
+      <c r="B117" s="188"/>
       <c r="E117" s="130">
         <v>4</v>
       </c>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="118" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="39"/>
-      <c r="B118" s="189"/>
+      <c r="B118" s="188"/>
       <c r="D118" s="12"/>
       <c r="E118" s="129"/>
       <c r="F118" s="153"/>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="39"/>
-      <c r="B119" s="189"/>
+      <c r="B119" s="188"/>
       <c r="D119" s="12"/>
       <c r="E119" s="13"/>
       <c r="F119" s="22"/>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="120" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="39"/>
-      <c r="B120" s="189"/>
+      <c r="B120" s="188"/>
       <c r="C120" s="129" t="s">
         <v>221</v>
       </c>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="39"/>
-      <c r="B121" s="189"/>
+      <c r="B121" s="188"/>
       <c r="C121" s="164"/>
       <c r="D121" s="165"/>
       <c r="E121" s="130">
@@ -7058,7 +7058,7 @@
     </row>
     <row r="122" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39"/>
-      <c r="B122" s="189"/>
+      <c r="B122" s="188"/>
       <c r="E122" s="130">
         <v>3</v>
       </c>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="123" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="39"/>
-      <c r="B123" s="189"/>
+      <c r="B123" s="188"/>
       <c r="E123" s="130">
         <v>4</v>
       </c>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="39"/>
-      <c r="B124" s="189"/>
+      <c r="B124" s="188"/>
       <c r="F124" s="9"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="125" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="39"/>
-      <c r="B125" s="189"/>
+      <c r="B125" s="188"/>
       <c r="C125" s="129" t="s">
         <v>222</v>
       </c>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="126" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="39"/>
-      <c r="B126" s="189"/>
+      <c r="B126" s="188"/>
       <c r="C126" s="164"/>
       <c r="D126" s="165"/>
       <c r="E126" s="130">
@@ -7138,7 +7138,7 @@
     </row>
     <row r="127" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="39"/>
-      <c r="B127" s="189"/>
+      <c r="B127" s="188"/>
       <c r="E127" s="130">
         <v>3</v>
       </c>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="128" spans="1:9" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39"/>
-      <c r="B128" s="189"/>
+      <c r="B128" s="188"/>
       <c r="E128" s="130">
         <v>4</v>
       </c>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="39"/>
-      <c r="B131" s="189" t="s">
+      <c r="B131" s="188" t="s">
         <v>55</v>
       </c>
       <c r="F131"/>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="132" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39"/>
-      <c r="B132" s="189"/>
+      <c r="B132" s="188"/>
       <c r="C132" s="129" t="s">
         <v>223</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="167" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G132" s="80" t="s">
         <v>11</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="133" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="39"/>
-      <c r="B133" s="189"/>
+      <c r="B133" s="188"/>
       <c r="D133" s="12"/>
       <c r="E133" s="130">
         <v>2</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="39"/>
-      <c r="B134" s="189"/>
+      <c r="B134" s="188"/>
       <c r="F134"/>
       <c r="I134" s="39"/>
     </row>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="137" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="39"/>
-      <c r="B137" s="196" t="s">
+      <c r="B137" s="189" t="s">
         <v>155</v>
       </c>
       <c r="C137" s="129" t="s">
@@ -7292,7 +7292,7 @@
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="39"/>
-      <c r="B138" s="196"/>
+      <c r="B138" s="189"/>
       <c r="C138" s="77"/>
       <c r="D138" s="152"/>
       <c r="E138" s="88">
@@ -7309,7 +7309,7 @@
     </row>
     <row r="139" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="39"/>
-      <c r="B139" s="196"/>
+      <c r="B139" s="189"/>
       <c r="D139" s="12"/>
       <c r="E139" s="130">
         <v>3</v>
@@ -7349,18 +7349,20 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B3:B28"/>
-    <mergeCell ref="B31:B67"/>
-    <mergeCell ref="B106:H106"/>
-    <mergeCell ref="B109:B128"/>
+    <mergeCell ref="I1:I68"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A72:A103"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="I72:I103"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="B88:B101"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="A1:A68"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D58:D59"/>
@@ -7377,22 +7379,20 @@
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="D45:D47"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B3:B28"/>
+    <mergeCell ref="B31:B67"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B109:B128"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
-    <mergeCell ref="I1:I68"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A72:A103"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="I72:I103"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="B88:B101"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C40:C43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -8235,24 +8235,24 @@
       <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
       <c r="F18" s="9">
         <v>1</v>
       </c>
       <c r="G18" s="22">
         <v>1</v>
       </c>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
       <c r="J18" s="22">
         <v>1</v>
       </c>
       <c r="K18" s="22">
         <v>1</v>
       </c>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
       <c r="N18" s="53"/>
       <c r="O18" s="22">
         <v>1</v>
@@ -8273,24 +8273,24 @@
       <c r="C19" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
       <c r="F19" t="s">
         <v>274</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="205"/>
       <c r="J19" s="33" t="s">
         <v>274</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
       <c r="N19" s="53"/>
       <c r="O19" s="33" t="s">
         <v>274</v>
@@ -8311,24 +8311,24 @@
       <c r="C20" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="205"/>
       <c r="F20" s="22" t="s">
         <v>276</v>
       </c>
       <c r="G20" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
       <c r="J20" s="22" t="s">
         <v>276</v>
       </c>
       <c r="K20" t="s">
         <v>277</v>
       </c>
-      <c r="L20" s="206"/>
-      <c r="M20" s="206"/>
+      <c r="L20" s="205"/>
+      <c r="M20" s="205"/>
       <c r="N20" s="53"/>
       <c r="O20" s="22" t="s">
         <v>276</v>
@@ -12105,7 +12105,7 @@
       <c r="A119" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B119" s="205"/>
+      <c r="B119" s="206"/>
       <c r="C119" s="53"/>
       <c r="D119" s="53"/>
       <c r="E119" s="53"/>
@@ -12126,16 +12126,16 @@
         <v>1</v>
       </c>
       <c r="N119" s="53"/>
-      <c r="O119" s="205"/>
-      <c r="P119" s="205"/>
-      <c r="Q119" s="205"/>
-      <c r="R119" s="205"/>
+      <c r="O119" s="206"/>
+      <c r="P119" s="206"/>
+      <c r="Q119" s="206"/>
+      <c r="R119" s="206"/>
     </row>
     <row r="120" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="B120" s="205"/>
+      <c r="B120" s="206"/>
       <c r="C120" s="53"/>
       <c r="D120" s="53"/>
       <c r="E120" s="53"/>
@@ -12156,16 +12156,16 @@
         <v>367</v>
       </c>
       <c r="N120" s="53"/>
-      <c r="O120" s="205"/>
-      <c r="P120" s="205"/>
-      <c r="Q120" s="205"/>
-      <c r="R120" s="205"/>
+      <c r="O120" s="206"/>
+      <c r="P120" s="206"/>
+      <c r="Q120" s="206"/>
+      <c r="R120" s="206"/>
     </row>
     <row r="121" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="B121" s="205"/>
+      <c r="B121" s="206"/>
       <c r="C121" s="53"/>
       <c r="D121" s="53"/>
       <c r="E121" s="53"/>
@@ -12186,16 +12186,16 @@
         <v>1</v>
       </c>
       <c r="N121" s="53"/>
-      <c r="O121" s="205"/>
-      <c r="P121" s="205"/>
-      <c r="Q121" s="205"/>
-      <c r="R121" s="205"/>
+      <c r="O121" s="206"/>
+      <c r="P121" s="206"/>
+      <c r="Q121" s="206"/>
+      <c r="R121" s="206"/>
     </row>
     <row r="122" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B122" s="205"/>
+      <c r="B122" s="206"/>
       <c r="C122" s="53"/>
       <c r="D122" s="53"/>
       <c r="E122" s="53"/>
@@ -12216,10 +12216,10 @@
         <v>371</v>
       </c>
       <c r="N122" s="53"/>
-      <c r="O122" s="205"/>
-      <c r="P122" s="205"/>
-      <c r="Q122" s="205"/>
-      <c r="R122" s="205"/>
+      <c r="O122" s="206"/>
+      <c r="P122" s="206"/>
+      <c r="Q122" s="206"/>
+      <c r="R122" s="206"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E123" s="33"/>
@@ -12491,17 +12491,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O119:O122"/>
+    <mergeCell ref="P119:P122"/>
+    <mergeCell ref="Q119:Q122"/>
+    <mergeCell ref="R119:R122"/>
+    <mergeCell ref="B119:B122"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
-    <mergeCell ref="O119:O122"/>
-    <mergeCell ref="P119:P122"/>
-    <mergeCell ref="Q119:Q122"/>
-    <mergeCell ref="R119:R122"/>
-    <mergeCell ref="B119:B122"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -16052,12 +16052,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16301,20 +16301,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{7668E845-134F-4ECB-9FA0-494B4A7FA23A}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{69349907-3DA1-46C8-908E-D7C35B01329B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16340,9 +16338,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{69349907-3DA1-46C8-908E-D7C35B01329B}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{7668E845-134F-4ECB-9FA0-494B4A7FA23A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>